--- a/public/reports/sales_order_g.xlsx
+++ b/public/reports/sales_order_g.xlsx
@@ -30,43 +30,43 @@
     <t>CUSTOMER:</t>
   </si>
   <si>
-    <t>Dream uniforms</t>
+    <t>Affan uniforms co.</t>
   </si>
   <si>
     <t>LPO REF:</t>
   </si>
   <si>
-    <t>lpo/Dream uniforms/27595</t>
+    <t>lpo/Affan uniforms co./500</t>
   </si>
   <si>
     <t>ADDRESS:</t>
   </si>
   <si>
-    <t>ASD street,Dubai</t>
+    <t>abc street,Khi</t>
   </si>
   <si>
     <t>Order Date</t>
   </si>
   <si>
+    <t>2019-01-14</t>
+  </si>
+  <si>
+    <t>CONTACT PERSON:</t>
+  </si>
+  <si>
+    <t>Affan</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
     <t>2019-01-19</t>
   </si>
   <si>
-    <t>CONTACT PERSON:</t>
-  </si>
-  <si>
-    <t>Mr Riaz</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>2019-01-24</t>
-  </si>
-  <si>
     <t>PHONE</t>
   </si>
   <si>
-    <t>09001234</t>
+    <t>09000</t>
   </si>
   <si>
     <t>SHIPPING INFO</t>
@@ -78,13 +78,13 @@
     <t>Address</t>
   </si>
   <si>
-    <t>ASD street</t>
+    <t>abc street</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>Dubai</t>
+    <t>Khi</t>
   </si>
   <si>
     <t>Phone</t>
@@ -120,13 +120,13 @@
     <t>DISCOUNT =</t>
   </si>
   <si>
-    <t>0</t>
+    <t>10000</t>
   </si>
   <si>
     <t>TAX=</t>
   </si>
   <si>
-    <t>0%</t>
+    <t>15%</t>
   </si>
   <si>
     <t>GRAND TOTAL =</t>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="29">
-        <v>30000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/public/reports/sales_order_g.xlsx
+++ b/public/reports/sales_order_g.xlsx
@@ -30,31 +30,31 @@
     <t>CUSTOMER:</t>
   </si>
   <si>
-    <t>Affan uniforms co.</t>
+    <t>rashid sons</t>
   </si>
   <si>
     <t>LPO REF:</t>
   </si>
   <si>
-    <t>lpo/Affan uniforms co./500</t>
+    <t>lpo/rashid sons/21051</t>
   </si>
   <si>
     <t>ADDRESS:</t>
   </si>
   <si>
-    <t>abc street,Khi</t>
+    <t>block a,north nazimabad,karachi</t>
   </si>
   <si>
     <t>Order Date</t>
   </si>
   <si>
-    <t>2019-01-14</t>
+    <t>2019-01-05</t>
   </si>
   <si>
     <t>CONTACT PERSON:</t>
   </si>
   <si>
-    <t>Affan</t>
+    <t xml:space="preserve">rashid </t>
   </si>
   <si>
     <t>Due Date</t>
@@ -66,7 +66,7 @@
     <t>PHONE</t>
   </si>
   <si>
-    <t>09000</t>
+    <t>0900</t>
   </si>
   <si>
     <t>SHIPPING INFO</t>
@@ -78,13 +78,13 @@
     <t>Address</t>
   </si>
   <si>
-    <t>abc street</t>
+    <t>block a,north nazimabad</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>Khi</t>
+    <t>karachi</t>
   </si>
   <si>
     <t>Phone</t>
@@ -105,13 +105,13 @@
     <t>Total Amount PKR</t>
   </si>
   <si>
-    <t>Shirt_White striped shirt</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>300</t>
+    <t>Jeans_Black Plain Pant with 4 pockets</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
   <si>
     <t>TOTAL =</t>
@@ -120,13 +120,13 @@
     <t>DISCOUNT =</t>
   </si>
   <si>
-    <t>10000</t>
+    <t>0</t>
   </si>
   <si>
     <t>TAX=</t>
   </si>
   <si>
-    <t>15%</t>
+    <t>0%</t>
   </si>
   <si>
     <t>GRAND TOTAL =</t>
@@ -4045,7 +4045,7 @@
         <v>30</v>
       </c>
       <c r="H19" s="26">
-        <v>30000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="29">
-        <v>30000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="35" ht="20.1" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="29">
-        <v>23000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/public/reports/sales_order_g.xlsx
+++ b/public/reports/sales_order_g.xlsx
@@ -30,43 +30,43 @@
     <t>CUSTOMER:</t>
   </si>
   <si>
-    <t>rashid sons</t>
+    <t>Dream uniforms</t>
   </si>
   <si>
     <t>LPO REF:</t>
   </si>
   <si>
-    <t>lpo/rashid sons/21051</t>
+    <t>lpo/Dream uniforms/73315</t>
   </si>
   <si>
     <t>ADDRESS:</t>
   </si>
   <si>
-    <t>block a,north nazimabad,karachi</t>
+    <t>ASD street,Dubai</t>
   </si>
   <si>
     <t>Order Date</t>
   </si>
   <si>
-    <t>2019-01-05</t>
+    <t>2019-01-02</t>
   </si>
   <si>
     <t>CONTACT PERSON:</t>
   </si>
   <si>
-    <t xml:space="preserve">rashid </t>
+    <t>Mr Riaz</t>
   </si>
   <si>
     <t>Due Date</t>
   </si>
   <si>
-    <t>2019-01-19</t>
+    <t>2019-02-04</t>
   </si>
   <si>
     <t>PHONE</t>
   </si>
   <si>
-    <t>0900</t>
+    <t>09001234</t>
   </si>
   <si>
     <t>SHIPPING INFO</t>
@@ -78,13 +78,13 @@
     <t>Address</t>
   </si>
   <si>
-    <t>block a,north nazimabad</t>
+    <t>ASD street</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>karachi</t>
+    <t>Dubai</t>
   </si>
   <si>
     <t>Phone</t>
@@ -105,13 +105,13 @@
     <t>Total Amount PKR</t>
   </si>
   <si>
-    <t>Jeans_Black Plain Pant with 4 pockets</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t>jacket_jacket info</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
   <si>
     <t>TOTAL =</t>
@@ -120,13 +120,13 @@
     <t>DISCOUNT =</t>
   </si>
   <si>
-    <t>0</t>
+    <t>10000</t>
   </si>
   <si>
     <t>TAX=</t>
   </si>
   <si>
-    <t>0%</t>
+    <t>13%</t>
   </si>
   <si>
     <t>GRAND TOTAL =</t>
@@ -4045,7 +4045,7 @@
         <v>30</v>
       </c>
       <c r="H19" s="26">
-        <v>500000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="29">
-        <v>500000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="35" ht="20.1" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="29">
-        <v>500000</v>
+        <v>214700</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
